--- a/nr-update/ig/StructureDefinition-as-dp-practitionerrole.xlsx
+++ b/nr-update/ig/StructureDefinition-as-dp-practitionerrole.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4930" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4930" uniqueCount="641">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-26T17:24:24+00:00</t>
+    <t>2025-01-21T08:42:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1425,7 +1425,10 @@
 </t>
   </si>
   <si>
-    <t>Details of a Technology mediated contact point (phone, fax, email, etc.)</t>
+    <t>BALs MSS de type PER rattachés à l'identifiant du professionnel de santé  ainsi qu'au lieu de sa situation d'exercice (BoiteLettreMSS).</t>
+  </si>
+  <si>
+    <t>SituationExercice.boiteLettresMSS</t>
   </si>
   <si>
     <t>PractitionerRole.telecom:mailbox-mss.id</t>
@@ -9978,7 +9981,7 @@
         <v>446</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>78</v>
+        <v>455</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>448</v>
@@ -9995,10 +9998,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10110,10 +10113,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10225,13 +10228,13 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B68" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="B68" t="s" s="2">
-        <v>458</v>
-      </c>
       <c r="C68" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>78</v>
@@ -10253,13 +10256,13 @@
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10342,10 +10345,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10457,10 +10460,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10572,10 +10575,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10601,13 +10604,13 @@
         <v>137</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10615,7 +10618,7 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>78</v>
@@ -10657,7 +10660,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>90</v>
@@ -10689,10 +10692,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10718,10 +10721,10 @@
         <v>157</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10733,7 +10736,7 @@
         <v>78</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>78</v>
@@ -10752,7 +10755,7 @@
       </c>
       <c r="Y72" s="2"/>
       <c r="Z72" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>78</v>
@@ -10770,7 +10773,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10802,13 +10805,13 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>78</v>
@@ -10830,13 +10833,13 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10919,10 +10922,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11034,10 +11037,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11151,13 +11154,13 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>78</v>
@@ -11182,7 +11185,7 @@
         <v>111</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M76" t="s" s="2">
         <v>205</v>
@@ -11268,10 +11271,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11383,10 +11386,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11498,10 +11501,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11527,13 +11530,13 @@
         <v>137</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11541,7 +11544,7 @@
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>78</v>
@@ -11583,7 +11586,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>90</v>
@@ -11615,10 +11618,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11644,10 +11647,10 @@
         <v>264</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11678,7 +11681,7 @@
       </c>
       <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>78</v>
@@ -11696,7 +11699,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -11728,13 +11731,13 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>78</v>
@@ -11759,7 +11762,7 @@
         <v>111</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>205</v>
@@ -11845,10 +11848,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11960,10 +11963,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12075,10 +12078,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12104,13 +12107,13 @@
         <v>137</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12118,7 +12121,7 @@
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>78</v>
@@ -12160,7 +12163,7 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>90</v>
@@ -12192,10 +12195,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12221,10 +12224,10 @@
         <v>104</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12275,7 +12278,7 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -12307,13 +12310,13 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D86" t="s" s="2">
         <v>78</v>
@@ -12424,10 +12427,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12539,10 +12542,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12654,10 +12657,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12683,13 +12686,13 @@
         <v>137</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12697,7 +12700,7 @@
       </c>
       <c r="Q89" s="2"/>
       <c r="R89" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="S89" t="s" s="2">
         <v>78</v>
@@ -12739,7 +12742,7 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>90</v>
@@ -12771,10 +12774,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12800,10 +12803,10 @@
         <v>104</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12854,7 +12857,7 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -12886,13 +12889,13 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D91" t="s" s="2">
         <v>78</v>
@@ -12917,7 +12920,7 @@
         <v>111</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M91" t="s" s="2">
         <v>205</v>
@@ -13003,10 +13006,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13118,10 +13121,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13233,10 +13236,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13262,13 +13265,13 @@
         <v>137</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13276,7 +13279,7 @@
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>78</v>
@@ -13318,7 +13321,7 @@
         <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>90</v>
@@ -13350,10 +13353,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13379,10 +13382,10 @@
         <v>104</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13433,7 +13436,7 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
@@ -13465,13 +13468,13 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>78</v>
@@ -13582,10 +13585,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13697,10 +13700,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13812,10 +13815,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13841,13 +13844,13 @@
         <v>137</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -13855,7 +13858,7 @@
       </c>
       <c r="Q99" s="2"/>
       <c r="R99" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="S99" t="s" s="2">
         <v>78</v>
@@ -13897,7 +13900,7 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>90</v>
@@ -13929,10 +13932,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13958,10 +13961,10 @@
         <v>104</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -14012,7 +14015,7 @@
         <v>78</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
@@ -14044,13 +14047,13 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D101" t="s" s="2">
         <v>78</v>
@@ -14075,7 +14078,7 @@
         <v>111</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M101" t="s" s="2">
         <v>205</v>
@@ -14161,10 +14164,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14276,10 +14279,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14391,10 +14394,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14420,13 +14423,13 @@
         <v>137</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14434,7 +14437,7 @@
       </c>
       <c r="Q104" s="2"/>
       <c r="R104" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="S104" t="s" s="2">
         <v>78</v>
@@ -14476,7 +14479,7 @@
         <v>78</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>90</v>
@@ -14508,10 +14511,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14537,10 +14540,10 @@
         <v>328</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14591,7 +14594,7 @@
         <v>78</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>79</v>
@@ -14623,13 +14626,13 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D106" t="s" s="2">
         <v>78</v>
@@ -14654,7 +14657,7 @@
         <v>111</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M106" t="s" s="2">
         <v>205</v>
@@ -14740,10 +14743,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14855,10 +14858,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14970,10 +14973,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14999,13 +15002,13 @@
         <v>137</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15013,7 +15016,7 @@
       </c>
       <c r="Q109" s="2"/>
       <c r="R109" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="S109" t="s" s="2">
         <v>78</v>
@@ -15055,7 +15058,7 @@
         <v>78</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>90</v>
@@ -15087,10 +15090,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15116,10 +15119,10 @@
         <v>328</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -15170,7 +15173,7 @@
         <v>78</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>79</v>
@@ -15202,10 +15205,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15231,13 +15234,13 @@
         <v>137</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -15245,7 +15248,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>78</v>
@@ -15287,7 +15290,7 @@
         <v>78</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>90</v>
@@ -15319,10 +15322,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15345,13 +15348,13 @@
         <v>78</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -15402,7 +15405,7 @@
         <v>78</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>79</v>
@@ -15434,10 +15437,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15463,10 +15466,10 @@
         <v>179</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -15478,7 +15481,7 @@
         <v>78</v>
       </c>
       <c r="S113" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="T113" t="s" s="2">
         <v>78</v>
@@ -15496,10 +15499,10 @@
         <v>257</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>78</v>
@@ -15517,7 +15520,7 @@
         <v>78</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>79</v>
@@ -15526,7 +15529,7 @@
         <v>90</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>102</v>
@@ -15535,13 +15538,13 @@
         <v>78</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>78</v>
@@ -15549,10 +15552,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15578,16 +15581,16 @@
         <v>104</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>78</v>
@@ -15636,7 +15639,7 @@
         <v>78</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>
@@ -15654,10 +15657,10 @@
         <v>78</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>294</v>
@@ -15668,10 +15671,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15697,16 +15700,16 @@
         <v>179</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>78</v>
@@ -15734,10 +15737,10 @@
         <v>257</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>78</v>
@@ -15755,7 +15758,7 @@
         <v>78</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>79</v>
@@ -15773,13 +15776,13 @@
         <v>78</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>78</v>
@@ -15787,10 +15790,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15813,16 +15816,16 @@
         <v>91</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -15872,7 +15875,7 @@
         <v>78</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>79</v>
@@ -15904,10 +15907,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15933,10 +15936,10 @@
         <v>297</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -15987,7 +15990,7 @@
         <v>78</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>79</v>
@@ -16008,7 +16011,7 @@
         <v>202</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>303</v>
@@ -16019,10 +16022,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16045,16 +16048,16 @@
         <v>78</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
@@ -16104,7 +16107,7 @@
         <v>78</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>79</v>
@@ -16125,7 +16128,7 @@
         <v>78</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>78</v>
@@ -16136,10 +16139,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16251,10 +16254,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16368,14 +16371,14 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -16397,10 +16400,10 @@
         <v>111</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="N121" t="s" s="2">
         <v>114</v>
@@ -16455,7 +16458,7 @@
         <v>78</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>79</v>
@@ -16487,10 +16490,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16516,10 +16519,10 @@
         <v>179</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -16549,10 +16552,10 @@
         <v>257</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>78</v>
@@ -16570,7 +16573,7 @@
         <v>78</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>79</v>
@@ -16591,7 +16594,7 @@
         <v>78</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>78</v>
@@ -16602,10 +16605,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16631,10 +16634,10 @@
         <v>328</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -16685,7 +16688,7 @@
         <v>78</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>79</v>
@@ -16706,7 +16709,7 @@
         <v>78</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>78</v>
@@ -16717,10 +16720,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16743,16 +16746,16 @@
         <v>78</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
@@ -16802,7 +16805,7 @@
         <v>78</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>79</v>
@@ -16823,7 +16826,7 @@
         <v>78</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>78</v>
@@ -16834,10 +16837,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16860,16 +16863,16 @@
         <v>78</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -16919,7 +16922,7 @@
         <v>78</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>79</v>
@@ -16940,7 +16943,7 @@
         <v>78</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>78</v>
@@ -16951,10 +16954,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -16977,13 +16980,13 @@
         <v>78</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -17034,7 +17037,7 @@
         <v>78</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>79</v>
@@ -17055,7 +17058,7 @@
         <v>78</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>78</v>
@@ -17066,10 +17069,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17181,10 +17184,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17298,14 +17301,14 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
@@ -17327,10 +17330,10 @@
         <v>111</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="N129" t="s" s="2">
         <v>114</v>
@@ -17385,7 +17388,7 @@
         <v>78</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>79</v>
@@ -17417,10 +17420,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17446,10 +17449,10 @@
         <v>104</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -17500,7 +17503,7 @@
         <v>78</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>90</v>
@@ -17532,10 +17535,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17561,10 +17564,10 @@
         <v>297</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -17615,7 +17618,7 @@
         <v>78</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>79</v>
@@ -17636,7 +17639,7 @@
         <v>78</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>78</v>
@@ -17647,10 +17650,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17676,10 +17679,10 @@
         <v>104</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -17730,7 +17733,7 @@
         <v>78</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>79</v>
@@ -17751,7 +17754,7 @@
         <v>78</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>78</v>
@@ -17762,10 +17765,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17788,17 +17791,17 @@
         <v>78</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>78</v>
@@ -17847,7 +17850,7 @@
         <v>78</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>79</v>

--- a/nr-update/ig/StructureDefinition-as-dp-practitionerrole.xlsx
+++ b/nr-update/ig/StructureDefinition-as-dp-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T08:42:48+00:00</t>
+    <t>2025-01-21T08:47:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
